--- a/RBA and Validation/Validation and Prediction_0830.xlsx
+++ b/RBA and Validation/Validation and Prediction_0830.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Library/Mobile Documents/com~apple~CloudDocs/工作/Data Storytelling/Strava-Cycling-Modeling-for-Dublin/RBA and Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74047A63-F8EB-EC45-877F-5CF748042FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE9270-BB15-EA43-BE8C-091C26894652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Model" sheetId="3" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,11 +745,11 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="L14">
         <f>B2+B3*I14+B4*G14+B12+B22+B20</f>
-        <v>17970.769498713125</v>
+        <v>17248.2363697808</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A13:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="109" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,15 +927,15 @@
         <v>14342</v>
       </c>
       <c r="K16" s="1">
-        <v>20662.792720497499</v>
+        <v>17970.7694987131</v>
       </c>
       <c r="L16" s="9">
         <f>(K16-J16)/J16</f>
-        <v>0.44071905734887035</v>
+        <v>0.25301697801653183</v>
       </c>
       <c r="M16" s="10">
         <f>1-L16</f>
-        <v>0.5592809426511296</v>
+        <v>0.74698302198346811</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -968,15 +968,15 @@
         <v>13126</v>
       </c>
       <c r="K17" s="1">
-        <v>20754.528629942699</v>
+        <v>18061.086139829666</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" ref="L17" si="1">(K17-J17)/J17</f>
-        <v>0.58117694879953519</v>
+        <v>0.37597791709810036</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" ref="M17:M18" si="2">1-L17</f>
-        <v>0.41882305120046481</v>
+        <f>1-L17</f>
+        <v>0.62402208290189964</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1009,15 +1009,15 @@
         <v>20324</v>
       </c>
       <c r="K18" s="1">
-        <v>20369.160932668823</v>
+        <v>17248.2363697808</v>
       </c>
       <c r="L18" s="9">
         <f>(K18-J18)/J18</f>
-        <v>2.2220494326325073E-3</v>
+        <v>-0.15133652972934464</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.99777795056736751</v>
+        <f>1+L18</f>
+        <v>0.84866347027065536</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1087,11 +1087,11 @@
         <v>600</v>
       </c>
       <c r="D22" s="1">
-        <v>20662.792720497499</v>
+        <v>17970.769498713125</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>0.44071905734887035</v>
+        <v>0.25301697801653361</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -16593,7 +16593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
